--- a/tutorial_04/Database.xlsx
+++ b/tutorial_04/Database.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruce/Dev/exobrain_chatbot/tutorial_04/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="460" windowWidth="28620" windowHeight="20760" activeTab="1"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="20540" windowWidth="28620" xWindow="2140" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="Seminar" sheetId="1" r:id="rId1"/>
-    <sheet name="Lecture" sheetId="2" r:id="rId2"/>
-    <sheet name="Response" sheetId="3" r:id="rId3"/>
-    <sheet name="User" sheetId="4" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Seminar" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lecture" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Response" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="User" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Response!$A$1:$E$5</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Response!$A$1:$E$5</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Response!$A$1:$E$5</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
   <si>
     <t>&lt;인공지능 아카데미&gt;</t>
   </si>
@@ -222,6 +209,9 @@
 現 세부내용 만들기 어려워 복사하는 사람들 대표이사</t>
   </si>
   <si>
+    <t>고급</t>
+  </si>
+  <si>
     <t>★ 개발자를 위한 챗봇 강의</t>
   </si>
   <si>
@@ -251,6 +241,9 @@
 現 세부내용 만들기 어려워 복사하는 사람들 대표이사</t>
   </si>
   <si>
+    <t>중급</t>
+  </si>
+  <si>
     <t>[자연어 처리]</t>
   </si>
   <si>
@@ -278,6 +271,9 @@
 現 세부내용 만들기 어려워 복사하는 사람들 대표이사</t>
   </si>
   <si>
+    <t>초급</t>
+  </si>
+  <si>
     <t>★ (1기)수학공식없이 코드와 사례로 배우는 자연어 처리</t>
   </si>
   <si>
@@ -382,15 +378,63 @@
 같습니다. </t>
   </si>
   <si>
+    <t>시나리오 버튼</t>
+  </si>
+  <si>
+    <t>메시지</t>
+  </si>
+  <si>
+    <t>사진</t>
+  </si>
+  <si>
+    <t>message_button</t>
+  </si>
+  <si>
+    <t>keyboard</t>
+  </si>
+  <si>
     <t>홈으로</t>
   </si>
   <si>
     <t>원하시는 정보 버튼을 눌러주세요.</t>
   </si>
   <si>
+    <t>학원소개,수업소개,시간표,강사소개,대화하기,홈으로</t>
+  </si>
+  <si>
+    <t>강사소개</t>
+  </si>
+  <si>
+    <t>강사소개 입니다.</t>
+  </si>
+  <si>
+    <t>학원소개</t>
+  </si>
+  <si>
+    <t>우리는 인공지능 기술을 교육합니다.</t>
+  </si>
+  <si>
+    <t>시간표</t>
+  </si>
+  <si>
+    <t>시간표입니다.</t>
+  </si>
+  <si>
+    <t>http://twinkleballet.co.kr/data/designImages/BANNER1_1461112781_%EC%8B%9C%EA%B0%84%ED%91%9C.jpg</t>
+  </si>
+  <si>
+    <t>웹에서 시간표 보기@https://www.ai-academy.ai/ai-b2c</t>
+  </si>
+  <si>
     <t>수업소개,오시는길,홈으로</t>
   </si>
   <si>
+    <t>대화하기</t>
+  </si>
+  <si>
+    <t>자유롭게 대화를 해 주세요</t>
+  </si>
+  <si>
     <t>사용자키</t>
   </si>
   <si>
@@ -400,163 +444,82 @@
     <t>이름</t>
   </si>
   <si>
+    <t>수준</t>
+  </si>
+  <si>
     <t>Xd-FnJwm2rSA</t>
   </si>
   <si>
     <t>이강훈</t>
-  </si>
-  <si>
-    <t>홈으로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메시지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시나리오 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학원소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간표입니다.</t>
-  </si>
-  <si>
-    <t>우리는 인공지능 기술을 교육합니다.</t>
-  </si>
-  <si>
-    <t>http://twinkleballet.co.kr/data/designImages/BANNER1_1461112781_%EC%8B%9C%EA%B0%84%ED%91%9C.jpg</t>
-  </si>
-  <si>
-    <t>message_button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹에서 시간표 보기@https://www.ai-academy.ai/ai-b2c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keyboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강사소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강사소개 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자유롭게 대화를 해 주세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈으로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대화하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학원소개,수업소개,시간표,강사소개,대화하기,홈으로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="7">
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="major"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -593,119 +556,106 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.3999755851924192"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="24">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyAlignment="1">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyAlignment="1">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="20" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyAlignment="1">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="기본" xfId="0" builtinId="0"/>
-    <cellStyle name="제목 1" xfId="1" builtinId="16"/>
-    <cellStyle name="제목 2" xfId="2" builtinId="17"/>
-    <cellStyle name="제목 3" xfId="3" builtinId="18"/>
-    <cellStyle name="제목 4" xfId="4" builtinId="19"/>
+    <cellStyle builtinId="0" name="기본" xfId="0"/>
+    <cellStyle builtinId="16" name="제목 1" xfId="1"/>
+    <cellStyle builtinId="17" name="제목 2" xfId="2"/>
+    <cellStyle builtinId="18" name="제목 3" xfId="3"/>
+    <cellStyle builtinId="19" name="제목 4" xfId="4"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -971,43 +921,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22" style="13" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="18" width="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D2" s="18" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="D2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1024,16 +969,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1050,7 +991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1067,7 +1008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1084,16 +1025,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1110,7 +1047,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1127,7 +1064,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1152,43 +1089,40 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A9:E9"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.1640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="50.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="13" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="18" width="53.33203125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="18" width="16.1640625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="18" width="14.83203125"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="18" width="39.6640625"/>
+    <col customWidth="1" max="6" min="6" style="18" width="29.1640625"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="19" width="50.83203125"/>
+    <col customWidth="1" max="8" min="8" style="18" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row customHeight="1" ht="24.75" r="1" s="18" spans="1:8" thickBot="1">
+      <c r="A1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row customHeight="1" ht="21" r="2" s="18" spans="1:8" thickBot="1" thickTop="1">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1214,18 +1148,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="21" r="3" s="18" spans="1:8" thickBot="1" thickTop="1">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="21"/>
-    </row>
-    <row r="4" spans="1:8" ht="149.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customHeight="1" ht="149.25" r="4" s="18" spans="1:8" thickTop="1">
       <c r="A4" s="9" t="s">
         <v>51</v>
       </c>
@@ -1248,265 +1179,253 @@
         <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="12" customFormat="1" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="99.75" r="5" s="16" spans="1:8" thickBot="1">
       <c r="A5" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.25" r="6" s="18" spans="1:8" thickBot="1">
+      <c r="A6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="6" t="n"/>
+    </row>
+    <row customHeight="1" ht="33.75" r="7" s="18" spans="1:8" thickTop="1">
+      <c r="A7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="21"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="E7" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="33.75" r="8" s="18" spans="1:8" thickBot="1">
       <c r="A8" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.25" r="9" s="18" spans="1:8" thickBot="1">
       <c r="A9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="21"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" s="12" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="6" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="10" s="16" spans="1:8">
       <c r="A10" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="50.25" r="11" s="18" spans="1:8" thickBot="1">
       <c r="A11" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.25" r="12" s="18" spans="1:8" thickBot="1">
       <c r="A12" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="9" t="n"/>
+      <c r="G12" s="6" t="n"/>
+    </row>
+    <row customHeight="1" ht="49.5" r="13" s="18" spans="1:8">
       <c r="A13" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="50.25" r="14" s="18" spans="1:8" thickBot="1">
       <c r="A14" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="17.25" r="15" s="16" spans="1:8" thickBot="1">
       <c r="A15" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="9" t="n"/>
+      <c r="G15" s="6" t="n"/>
+    </row>
+    <row customHeight="1" ht="50.25" r="16" s="18" spans="1:8" thickBot="1">
       <c r="A16" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="17" t="s">
-        <v>135</v>
+      <c r="H16" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1518,153 +1437,161 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B12:E12"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.33203125" style="13" customWidth="1"/>
-    <col min="3" max="4" width="62.33203125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="33" style="13" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="18" width="29.83203125"/>
+    <col customWidth="1" max="2" min="2" style="18" width="40.33203125"/>
+    <col customWidth="1" max="4" min="3" style="18" width="62.33203125"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="18" width="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>123</v>
+        <v>110</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="E1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="25" r="2" s="11" spans="1:5">
       <c r="A2" s="11" t="s">
         <v>114</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="25" r="3" s="11" spans="1:5">
       <c r="A3" s="11" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="25" r="4" s="11" spans="1:5">
       <c r="A4" s="11" t="s">
         <v>119</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="49.5" r="5" s="11" spans="1:5">
+      <c r="A5" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>118</v>
-      </c>
       <c r="B5" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E5"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="18" width="14"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="18" width="11.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="D1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2">
+        <v>132</v>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/tutorial_04/Database.xlsx
+++ b/tutorial_04/Database.xlsx
@@ -1,146 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruce/Developer/exobrain_chatbot/tutorial_04/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="20540" windowWidth="28620" xWindow="2140" yWindow="460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Seminar" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lecture" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Response" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="User" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Lecture" sheetId="2" r:id="rId1"/>
+    <sheet name="Response" sheetId="3" r:id="rId2"/>
+    <sheet name="User" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Response!$A$1:$E$5</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Response!$A$1:$E$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Response!$A$1:$E$5</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
-  <si>
-    <t>&lt;인공지능 아카데미&gt;</t>
-  </si>
-  <si>
-    <t>문의전화 112</t>
-  </si>
-  <si>
-    <t>8~9월 세미나 일정</t>
-  </si>
-  <si>
-    <t>내용</t>
-  </si>
-  <si>
-    <t>대상</t>
-  </si>
-  <si>
-    <t>일시</t>
-  </si>
-  <si>
-    <t>연사</t>
-  </si>
-  <si>
-    <t>장소</t>
-  </si>
-  <si>
-    <t>[챗봇 세미나]</t>
-  </si>
-  <si>
-    <t>◆자비스까지의 발걸음</t>
-  </si>
-  <si>
-    <t>나</t>
-  </si>
-  <si>
-    <t>오늘</t>
-  </si>
-  <si>
-    <t>이준호</t>
-  </si>
-  <si>
-    <t>여기</t>
-  </si>
-  <si>
-    <t>◆B타민 가득한 챗봇</t>
-  </si>
-  <si>
-    <t>너</t>
-  </si>
-  <si>
-    <t>내일</t>
-  </si>
-  <si>
-    <t>김현우</t>
-  </si>
-  <si>
-    <t>저기</t>
-  </si>
-  <si>
-    <t>◆구글 어시스턴트 저격</t>
-  </si>
-  <si>
-    <t>우리</t>
-  </si>
-  <si>
-    <t>모래</t>
-  </si>
-  <si>
-    <t>이호준</t>
-  </si>
-  <si>
-    <t>이곳</t>
-  </si>
-  <si>
-    <t>[딥러닝 세미나]</t>
-  </si>
-  <si>
-    <t>◆딥러닝 어렵지 않아요</t>
-  </si>
-  <si>
-    <t>그들</t>
-  </si>
-  <si>
-    <t>어제</t>
-  </si>
-  <si>
-    <t>호준이</t>
-  </si>
-  <si>
-    <t>저곳</t>
-  </si>
-  <si>
-    <t>◆DL 기초</t>
-  </si>
-  <si>
-    <t>모두</t>
-  </si>
-  <si>
-    <t>엊그제</t>
-  </si>
-  <si>
-    <t>준호이</t>
-  </si>
-  <si>
-    <t>가까이</t>
-  </si>
-  <si>
-    <t>◆동그라미 DL</t>
-  </si>
-  <si>
-    <t>누군가</t>
-  </si>
-  <si>
-    <t>언젠가</t>
-  </si>
-  <si>
-    <t>비밀</t>
-  </si>
-  <si>
-    <t>어딘가</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="94">
   <si>
     <t>&lt;한국 인공지능 아카데미 강좌&gt;</t>
   </si>
@@ -456,70 +348,69 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <sz val="11"/>
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -556,106 +447,109 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.3999755851924192"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="5">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="20" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle builtinId="0" name="기본" xfId="0"/>
-    <cellStyle builtinId="16" name="제목 1" xfId="1"/>
-    <cellStyle builtinId="17" name="제목 2" xfId="2"/>
-    <cellStyle builtinId="18" name="제목 3" xfId="3"/>
-    <cellStyle builtinId="19" name="제목 4" xfId="4"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle name="제목 1" xfId="1" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="2" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="3" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="4" builtinId="19"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -921,511 +815,354 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" outlineLevelCol="0"/>
-  <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="18" width="22"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="D2" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A9:E9"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="18" width="53.33203125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="18" width="16.1640625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="18" width="14.83203125"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="18" width="39.6640625"/>
-    <col customWidth="1" max="6" min="6" style="18" width="29.1640625"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="19" width="50.83203125"/>
-    <col customWidth="1" max="8" min="8" style="18" width="9"/>
+    <col min="1" max="1" width="53.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.1640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="50.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="24.75" r="1" s="18" spans="1:8" thickBot="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:8" ht="149.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="12" customFormat="1" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="17"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row customHeight="1" ht="21" r="2" s="18" spans="1:8" thickBot="1" thickTop="1">
-      <c r="A2" s="1" t="s">
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B9" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="17"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" s="12" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F10" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row customHeight="1" ht="21" r="3" s="18" spans="1:8" thickBot="1" thickTop="1">
-      <c r="A3" s="1" t="s">
+      <c r="G10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B11" s="8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row customHeight="1" ht="149.25" r="4" s="18" spans="1:8" thickTop="1">
-      <c r="A4" s="9" t="s">
+      <c r="C11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="G11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="B12" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="C13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H4" t="s">
+      <c r="F13" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="99.75" r="5" s="16" spans="1:8" thickBot="1">
-      <c r="A5" s="8" t="s">
+      <c r="G13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B14" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="F14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="B15" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="B16" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="C16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row customHeight="1" ht="20.25" r="6" s="18" spans="1:8" thickBot="1">
-      <c r="A6" s="4" t="s">
+      <c r="E16" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="F16" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="33.75" r="7" s="18" spans="1:8" thickTop="1">
-      <c r="A7" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="33.75" r="8" s="18" spans="1:8" thickBot="1">
-      <c r="A8" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17.25" r="9" s="18" spans="1:8" thickBot="1">
-      <c r="A9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="6" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="10" s="16" spans="1:8">
-      <c r="A10" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="50.25" r="11" s="18" spans="1:8" thickBot="1">
-      <c r="A11" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17.25" r="12" s="18" spans="1:8" thickBot="1">
-      <c r="A12" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="9" t="n"/>
-      <c r="G12" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="49.5" r="13" s="18" spans="1:8">
-      <c r="A13" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="50.25" r="14" s="18" spans="1:8" thickBot="1">
-      <c r="A14" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="17.25" r="15" s="16" spans="1:8" thickBot="1">
-      <c r="A15" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="9" t="n"/>
-      <c r="G15" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="50.25" r="16" s="18" spans="1:8" thickBot="1">
-      <c r="A16" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>108</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>58</v>
+        <v>17</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1437,161 +1174,156 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B12:E12"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" style="13" customWidth="1"/>
+    <col min="3" max="4" width="62.33203125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="33" style="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E5"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" outlineLevelCol="0"/>
-  <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="18" width="29.83203125"/>
-    <col customWidth="1" max="2" min="2" style="18" width="40.33203125"/>
-    <col customWidth="1" max="4" min="3" style="18" width="62.33203125"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="18" width="33"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="25" r="2" s="11" spans="1:5">
-      <c r="A2" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="25" r="3" s="11" spans="1:5">
-      <c r="A3" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="25" r="4" s="11" spans="1:5">
-      <c r="A4" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="49.5" r="5" s="11" spans="1:5">
-      <c r="A5" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E5"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="18" width="14"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="18" width="11.6640625"/>
+    <col min="1" max="1" width="14" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>